--- a/data/motor speed test with current driver.xlsx
+++ b/data/motor speed test with current driver.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2cd3e99d6a3c3959/Documents/2018 UBC/ELEC 391/Controller/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="8_{9B2BFD63-6A23-4E0D-8373-F05A25BA05AD}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{C20F9E1C-A735-433C-88E5-2F1BAD195B8A}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="8_{9B2BFD63-6A23-4E0D-8373-F05A25BA05AD}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{3E330FAF-02A2-430B-AECD-612ECD90EAED}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="912" windowWidth="17028" windowHeight="8676" activeTab="2" xr2:uid="{375F85D2-39CE-438F-A236-E3B2FDD3EE0C}"/>
+    <workbookView xWindow="0" yWindow="1824" windowWidth="17028" windowHeight="8676" activeTab="4" xr2:uid="{375F85D2-39CE-438F-A236-E3B2FDD3EE0C}"/>
   </bookViews>
   <sheets>
     <sheet name="PWM50" sheetId="1" r:id="rId1"/>
@@ -8869,37 +8869,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -11998,6 +11968,9 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="2"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>'PWM50'!$B$4:$B$510</c:f>
@@ -15071,6 +15044,9 @@
           <c:spPr>
             <a:effectLst/>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>'PWM100'!$B$4:$B$538</c:f>
@@ -18312,6 +18288,9 @@
           <c:spPr>
             <a:effectLst/>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>'PWM50'!$G$4:$G$322</c:f>
@@ -20258,19 +20237,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -22070,6 +22037,24 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -22132,6 +22117,29 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Speed</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> (rad/s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -26082,16 +26090,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>179070</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>506730</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26205,16 +26213,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -50185,7 +50193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D008BA1-D04C-4E61-A896-BC02B4D192B9}">
   <dimension ref="B2:I293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
@@ -60060,8 +60068,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
